--- a/Demodaten.xlsx
+++ b/Demodaten.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
     <t>Festivalname</t>
   </si>
@@ -141,46 +141,6 @@
   </si>
   <si>
     <t>Rock</t>
-  </si>
-  <si>
-    <t>Rock That Swing Festival</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>Das Rock That Swing Festival ist eine der größten Veranstaltungen seiner Art und lässt den lebensfrohen amerikanischen Lifestyle der 20er bis 50er Jahre wieder auferstehen.</t>
-  </si>
-  <si>
-    <t>23.02.2017 - 27.02.2017</t>
-  </si>
-  <si>
-    <t>Lauterbourg</t>
-  </si>
-  <si>
-    <t>Reggae</t>
-  </si>
-  <si>
-    <t>12.05.2017 - 14.05.2017</t>
-  </si>
-  <si>
-    <t>Sunshine Reggae Festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Sunshine Reggae Festival findet vom 12. bis und 14. Mai 2017 zum siebten Mal am 600m langen Badestrand von Lauterbourg statt.
-Somit verbindet das Festival das Elsass mit der südöstlichen Rheinland-Pfalz und unterstreicht damit in dieser Region die deutsch/französische Freundschaft. </t>
-  </si>
-  <si>
-    <t>Immergut Festival</t>
-  </si>
-  <si>
-    <t>Neustrelitz</t>
-  </si>
-  <si>
-    <t>26.05.2017-27.05.2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zum 18. Mal pilgern wieder 5.000 gleichgesinnte Pop-Rock-Indie-Fans zu einem der schönsten Festivalplätze Deutschlands. Gelegen in Mitten von Kiefern und an kleinen Seen, die sich im Wald verstecken. Der Grund für die Wallfahrt ist die jährliche Eröffnung der Festivalsaison in Deutschland - das Immergut Festival. </t>
   </si>
   <si>
     <t>02.06.2017 - 04.06.2017</t>
@@ -348,55 +308,7 @@
     <t>Womoplakete 15 €</t>
   </si>
   <si>
-    <t>Kombiticket 2017 Preisstufe 2 [179 EUR]
-inkl. 10,- € Müllpfand</t>
-  </si>
-  <si>
-    <t>Resort Ruf der Eule 2017 [289 EUR]
-inkl. Kombiticket und Resortticket für 1 Person</t>
-  </si>
-  <si>
-    <t>Resort Wolfsrudel Bronze 2017 [399 EUR]
-inkl. Kombi-, Resort- und Unterkunftsticket für 1 Person</t>
-  </si>
-  <si>
-    <t>Resort Wolfsrudel Silver 2017 [499 EUR]
-inkl. Kombi-, Resort- und Unterkunftsticket für 1 Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- Clubticket 2017 [329 EUR]
-inkl. Kombi- und Clubticket für 1 Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WOMO PLAKETTE 2017 - OST [40 EUR]
-für alle Camper aus Richtung Hannover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- WOMO PLAKETTE 2017 - WEST [40 EUR]
-für alle Camper aus Richtung Hamburg und Bremen</t>
-  </si>
-  <si>
     <t>3-Day-All-In Tickets kostet 220€ inkl. Gebühr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Tage-Festival-Hardticket inkl. Parken und Campen sowie Vorverkaufsgebühr und 10 EUR Müllpfand. 
-185 EUR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Tage-Festival-Hardticket inkl. Parken und Campen sowie Vorverkaufsgebühr und 10 EUR Müllpfand. Zeppelin Stage Camping in unmittelbarer Nähe zur Hauptbühne. Duschen und Wassertoiletten inbegriffen.
-315 EUR </t>
-  </si>
-  <si>
-    <t>Im Preis für das Caravan Parking-Ticket 
-Wohnwagen
-120 EUR</t>
-  </si>
-  <si>
-    <t>Im Preis für das Caravan Parking-Ticket 
-Wohnmobil
-120 EUR</t>
   </si>
   <si>
     <t xml:space="preserve">ROCK AM RING FESTIVAL-TICKET GENERAL CAMPING. 
@@ -417,6 +329,191 @@
   <si>
     <t>ROCK AM RING FRÜHANREISE-TICKET
 20EUr</t>
+  </si>
+  <si>
+    <t>Freitag 20€</t>
+  </si>
+  <si>
+    <t>Sonntag 20€</t>
+  </si>
+  <si>
+    <t>Full Weekend 55€</t>
+  </si>
+  <si>
+    <t>Samstag 30€</t>
+  </si>
+  <si>
+    <t>Standard-Ticket 24.90€</t>
+  </si>
+  <si>
+    <t>VIP-Ticket 49 €</t>
+  </si>
+  <si>
+    <t>JUICY BEATS 22 | FANTICKET KOMBITICKET FR/SA
+67.40€</t>
+  </si>
+  <si>
+    <t>JUICY BEATS 22 | CAMPING TICKET 38 €</t>
+  </si>
+  <si>
+    <t>JUICY BEATS 22 | PARKPLAKETTE 8€</t>
+  </si>
+  <si>
+    <t>3-Tages-Ticket (Normalpreis) 2017 66.66€</t>
+  </si>
+  <si>
+    <t>3-Tages-Ticket (Unterstützer) 2017 + Backstageführung 84.90€</t>
+  </si>
+  <si>
+    <t>Tagesticket 2017 34.00€</t>
+  </si>
+  <si>
+    <t>Regular Full Weekend Visa
+€199,-</t>
+  </si>
+  <si>
+    <t>Regular Full Weekend Visa + Campsite
+€249,-</t>
+  </si>
+  <si>
+    <t>Regular Friday Visa 99€</t>
+  </si>
+  <si>
+    <t>Regular Saturday Visa 109€</t>
+  </si>
+  <si>
+    <t>Regular Sunday Visa 89€</t>
+  </si>
+  <si>
+    <t>VIP Full Weekend Visa
+€299,-</t>
+  </si>
+  <si>
+    <t>VIP Full Weekend Visa + Campsite
+€349,-</t>
+  </si>
+  <si>
+    <t>VIP Friday Visa 179€</t>
+  </si>
+  <si>
+    <t>VIP Saturday Visa 199€</t>
+  </si>
+  <si>
+    <t>VIP Sunday Visa 159€</t>
+  </si>
+  <si>
+    <t>Hardticket, Pogo-Festival 2017
+51,50 € *</t>
+  </si>
+  <si>
+    <t>ROCKHARZ 2017 FRÜHBUCHER-TICKET
+97,90 €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Donnerstag, 
+TICKET JEANETTE HARRIS | SHAKATAK
+Sitzplatz: 69€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Donnerstag, 
+TICKET JEANETTE HARRIS | SHAKATAK
+Stehplatz: 49€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freitag, 
+TICKET BRIAN BROMBERG | OLI SILK &amp; JJ SANSAVERINO
+Sitzplatz: 69€
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freitag, 
+TICKET BRIAN BROMBERG | OLI SILK &amp; JJ SANSAVERINO
+Stehplatz: 49€
+</t>
+  </si>
+  <si>
+    <t>Samstag,
+TICKET EUGE GROOVE | NEW YEAR'S ALLSTAR JAM SESSION
+Sitzplatz: 79€</t>
+  </si>
+  <si>
+    <t>Samstag,
+TICKET EUGE GROOVE | NEW YEAR'S ALLSTAR JAM SESSION
+Stehplatz: 59€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonntag,
+TICKET LINDSEY WEBSTER | ELAN TROTMAN
+Sitzplatz: 59€ 
+</t>
+  </si>
+  <si>
+    <t>Stehplatz 27,75€</t>
+  </si>
+  <si>
+    <t>SONNEMONDSTERNE FESTIVAL-TICKET 2017 INKL. VVK-GEBÜHR 153€</t>
+  </si>
+  <si>
+    <t>WORLD CLUB DOME FESTIVAL-TICKET 2017  INKL. VVK-GEBÜHR 153€</t>
+  </si>
+  <si>
+    <t>VIVA-CLUB-TICKET
+165€</t>
+  </si>
+  <si>
+    <t>Normal Ticket - VIVA Willingen 2017
+22€</t>
+  </si>
+  <si>
+    <t>Festivalticket 69€</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Truck-Ticket 99€</t>
+  </si>
+  <si>
+    <t>Kombiticket 2017 Preisstufe 2 [179 EUR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCK IM PARK FESTIVAL-TICKET GENERAL CAMPING
+185 EUR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCK IM PARK FESTIVAL-TICKET ZEPPELIN STAGE CAMPING
+315 EUR </t>
+  </si>
+  <si>
+    <t>ROCK IM PARK CARAVAN PARKING „WOHNMOBIL“ (inkl. 2 Personen)
+120 EUR</t>
+  </si>
+  <si>
+    <t>ROCK IM PARK CARAVAN PARKING „WOHNWAGEN“ (inkl. 2 Personen)
+120 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resort Ruf der Eule 2017 [289 EUR]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resort Wolfsrudel Bronze 2017 [399 EUR]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resort Wolfsrudel Silver 2017 [499 EUR]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WOMO PLAKETTE 2017 - OST [40 EUR]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clubticket 2017 [329 EUR]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WOMO PLAKETTE 2017 - WEST [40 EUR]
+</t>
   </si>
 </sst>
 </file>
@@ -460,13 +557,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,477 +846,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M25"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="56" style="2" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42714</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42763</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42714</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B18" s="3">
+        <v>42903</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>42763</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="2">
-        <v>42903</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>13</v>
+      <c r="G21" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Demodaten.xlsx
+++ b/Demodaten.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Festivals!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Festivals!$A$2:$F$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="142">
   <si>
     <t>Festivalname</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1075,9 @@
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
@@ -1383,7 +1386,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:F21"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
